--- a/Stix/Stix/Maritime Cyber Security Incidents nomacro.xlsx
+++ b/Stix/Stix/Maritime Cyber Security Incidents nomacro.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Untura Stefan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\work\STIX\Stix\Stix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37947DEF-3747-459F-8F00-106E56F974C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1287EFA6-BFF7-4DC3-A744-C2ACBEE71C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17328" yWindow="0" windowWidth="17425" windowHeight="8955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gecorrigeerd" sheetId="77" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="1500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="1490">
   <si>
     <t>Hapag-Lloyd hit by spear-phishing attack in Hamburg, Germany</t>
   </si>
@@ -1036,9 +1036,6 @@
   </si>
   <si>
     <t>According to Red Funnel, data theft does not appear to be a motive. No evidence of personal data leaks.</t>
-  </si>
-  <si>
-    <t>2014/2018/2020</t>
   </si>
   <si>
     <t>Chinese fishing fleet hit by a spoofing attack near the Galapagos Islands, EEZ</t>
@@ -1338,9 +1335,6 @@
     <t>19x1</t>
   </si>
   <si>
-    <t>2019-2020</t>
-  </si>
-  <si>
     <t>Groups of simulated sailboats cause spoofing incident in the Atlantic Ocean</t>
   </si>
   <si>
@@ -1357,9 +1351,6 @@
   </si>
   <si>
     <t>In 2019 and 2020 false AIS positions show tracks crossing the Atlantic Ocean from one of several simulated sailing races. The race organizers not only simulated realistic AIS positions for each of the competitors, but they also fed these fictitious positions into a public AIS site, sites like AISHub receive ship positions from contributors, so that the sailboat positions appeared alongside real vessel traffic on these sites.</t>
-  </si>
-  <si>
-    <t>2019/2020</t>
   </si>
   <si>
     <t>Transport Malta hit by cyberattack</t>
@@ -2069,9 +2060,6 @@
     <t xml:space="preserve">In March 2018, vessels'GPS were jammed in the Mediterranean Sea, by the coast of Cyprus. In this incident multiple Turkisch jammers are simultaneously implemented to block around 16 miles away from Cyprus and Egypt in order to jam the petroleum search. </t>
   </si>
   <si>
-    <t>2018-2019</t>
-  </si>
-  <si>
     <t>Vessels hit by a spoofing attack near the Port of Shanghai in China</t>
   </si>
   <si>
@@ -2235,9 +2223,6 @@
   </si>
   <si>
     <t>14x1</t>
-  </si>
-  <si>
-    <t>2014-2018</t>
   </si>
   <si>
     <t>U.S. Engineering &amp; Maritime industry hit by malware attack</t>
@@ -2856,9 +2841,6 @@
     <t>15x1</t>
   </si>
   <si>
-    <t>2015-2016</t>
-  </si>
-  <si>
     <t>Vessel 'Corinthian Bay' going dark in Heard Island &amp; McDonalds Islands, Australia</t>
   </si>
   <si>
@@ -2956,9 +2938,6 @@
   </si>
   <si>
     <t>In 2016, an  shipping company at an  location, was hit by a hacking attack. The hackers, swashbuckling criminals, pirates, gained acces by hacking the content management system of the company (CMS). The pirates hacked into the systems in order to get a sneak preview of the cargo. They uploaded a malicious web shell onto a server running the company's CMS. The pirates used this compromised system to view key shipping and inventory data, including bills of lading. After that, they searched by bar code for highly valuable items. They wanted to be able to attack the ship efficiently by locating the exact vessel and cargo containers they wanted to plunder. It resulted in valuable cargo theft. The company had to shut down the servers, change passwords, and block the attackers’ IP addresses.</t>
-  </si>
-  <si>
-    <t>2014-2015</t>
   </si>
   <si>
     <t>Trawler fishing vessels 'Releixo' and 'Egaluze' go dark in Senegal and Gambia</t>
@@ -3401,9 +3380,6 @@
     <t xml:space="preserve">In October 2012, the Iranian off-shore oil and gas platform got hit by cyberattack. The exact location where the cyberattack took place was the Persian Gulf. For a few weeks, the regime occupying Jerusalem (Israel) and a few other countries have been targeting the communication networks with  the aim of having a cyber warfare with Iran. The consequence of the cyberattack was obstruction of the oil production. Tehran heavily invested in cyber defense and capability. </t>
   </si>
   <si>
-    <t>2011-2013</t>
-  </si>
-  <si>
     <t>Port of Antwerp and Rotterdam hit by malware attack</t>
   </si>
   <si>
@@ -3485,9 +3461,6 @@
     <t>10x1</t>
   </si>
   <si>
-    <t>2010-2011</t>
-  </si>
-  <si>
     <t>Greek shipping company hit by a hacking attack</t>
   </si>
   <si>
@@ -3510,9 +3483,6 @@
   </si>
   <si>
     <t>Greek shipping company hit by a hacking attack from 2010-2011 carried out by hackers hired by local pirates. Local pirates hired hackers to gain acces to the company's local HQ and identify the most vulnarable ships along with the routes and timetables. Hackers gained acces to the company's IT systems via wifi-equipment that was installed at the company's office. These hacks resulted in succesful pirate attacks in the Golf of Aden</t>
-  </si>
-  <si>
-    <t>2010-2013</t>
   </si>
   <si>
     <t>Hyundai Merchant Marine hit by backdoor entry Fucobha</t>
@@ -5506,110 +5476,110 @@
   <sheetPr codeName="Blad77"/>
   <dimension ref="A1:V152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="150.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="150.6640625" defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="137" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="86.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="121.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="67.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="63.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="86.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="121.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="67.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="63.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="92" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="201" width="20.7109375" customWidth="1"/>
+    <col min="19" max="20" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="50.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="201" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="K1" t="s">
         <v>1478</v>
       </c>
-      <c r="B1" t="s">
+      <c r="L1" t="s">
         <v>1479</v>
       </c>
-      <c r="C1" t="s">
+      <c r="M1" t="s">
         <v>1480</v>
       </c>
-      <c r="D1" t="s">
+      <c r="N1" t="s">
         <v>1481</v>
       </c>
-      <c r="E1" t="s">
+      <c r="O1" t="s">
         <v>1482</v>
       </c>
-      <c r="F1" t="s">
+      <c r="P1" t="s">
         <v>1483</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
         <v>1484</v>
       </c>
-      <c r="H1" t="s">
+      <c r="R1" t="s">
         <v>1485</v>
       </c>
-      <c r="I1" t="s">
+      <c r="S1" t="s">
         <v>1486</v>
       </c>
-      <c r="J1" t="s">
+      <c r="T1" t="s">
         <v>1487</v>
       </c>
-      <c r="K1" t="s">
+      <c r="U1" t="s">
         <v>1488</v>
       </c>
-      <c r="L1" t="s">
+      <c r="V1" t="s">
         <v>1489</v>
       </c>
-      <c r="M1" t="s">
-        <v>1490</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1491</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1492</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1493</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>1494</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1495</v>
-      </c>
-      <c r="S1" t="s">
-        <v>1496</v>
-      </c>
-      <c r="T1" t="s">
-        <v>1497</v>
-      </c>
-      <c r="U1" t="s">
-        <v>1498</v>
-      </c>
-      <c r="V1" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>123456789</v>
       </c>
       <c r="B2">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>2099</v>
+        <v>2022</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -5642,13 +5612,13 @@
         <v>9</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>1199</v>
+        <v>1189</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>987654321</v>
       </c>
@@ -5695,13 +5665,13 @@
         <v>20</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>1201</v>
+        <v>1191</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2201</v>
       </c>
@@ -5754,13 +5724,13 @@
         <v>31</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>1203</v>
+        <v>1193</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="58.1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2201</v>
       </c>
@@ -5801,13 +5771,13 @@
         <v>37</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2202</v>
       </c>
@@ -5848,13 +5818,13 @@
         <v>45</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>1207</v>
+        <v>1197</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2202</v>
       </c>
@@ -5892,13 +5862,13 @@
         <v>53</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2202</v>
       </c>
@@ -5948,13 +5918,13 @@
         <v>64</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>1211</v>
+        <v>1201</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2202</v>
       </c>
@@ -5992,13 +5962,13 @@
         <v>72</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2105</v>
       </c>
@@ -6045,13 +6015,13 @@
         <v>80</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>1215</v>
+        <v>1205</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2111</v>
       </c>
@@ -6092,13 +6062,13 @@
         <v>87</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="58.1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2104</v>
       </c>
@@ -6148,13 +6118,13 @@
         <v>97</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2107</v>
       </c>
@@ -6195,13 +6165,13 @@
         <v>105</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2103</v>
       </c>
@@ -6239,13 +6209,13 @@
         <v>111</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="58.1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2106</v>
       </c>
@@ -6295,13 +6265,13 @@
         <v>121</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2106</v>
       </c>
@@ -6339,13 +6309,13 @@
         <v>131</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2106</v>
       </c>
@@ -6386,13 +6356,13 @@
         <v>137</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2110</v>
       </c>
@@ -6436,13 +6406,13 @@
         <v>143</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2111</v>
       </c>
@@ -6486,13 +6456,13 @@
         <v>153</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="90" x14ac:dyDescent="0.25">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="87.15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2112</v>
       </c>
@@ -6533,13 +6503,13 @@
         <v>162</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2108</v>
       </c>
@@ -6583,13 +6553,13 @@
         <v>171</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>1237</v>
+        <v>1227</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2108</v>
       </c>
@@ -6633,13 +6603,13 @@
         <v>181</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>1239</v>
+        <v>1229</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2107</v>
       </c>
@@ -6683,13 +6653,13 @@
         <v>190</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>1241</v>
+        <v>1231</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2106</v>
       </c>
@@ -6730,13 +6700,13 @@
         <v>197</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>1243</v>
+        <v>1233</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2110</v>
       </c>
@@ -6771,13 +6741,13 @@
         <v>202</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>1245</v>
+        <v>1235</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2104</v>
       </c>
@@ -6812,13 +6782,13 @@
         <v>209</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>1247</v>
+        <v>1237</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="58.1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2103</v>
       </c>
@@ -6865,13 +6835,13 @@
         <v>217</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>1249</v>
+        <v>1239</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2102</v>
       </c>
@@ -6909,13 +6879,13 @@
         <v>223</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>1251</v>
+        <v>1241</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="58.1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2102</v>
       </c>
@@ -6956,13 +6926,13 @@
         <v>229</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>1253</v>
+        <v>1243</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2103</v>
       </c>
@@ -7000,13 +6970,13 @@
         <v>235</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>1255</v>
+        <v>1245</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2102</v>
       </c>
@@ -7050,13 +7020,13 @@
         <v>243</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>1257</v>
+        <v>1247</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="58.1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2109</v>
       </c>
@@ -7091,13 +7061,13 @@
         <v>247</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>1259</v>
+        <v>1249</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2011</v>
       </c>
@@ -7141,13 +7111,13 @@
         <v>243</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>1261</v>
+        <v>1251</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2006</v>
       </c>
@@ -7188,13 +7158,13 @@
         <v>258</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>1263</v>
+        <v>1253</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="58.1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2001</v>
       </c>
@@ -7238,13 +7208,13 @@
         <v>266</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>1265</v>
+        <v>1255</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2009</v>
       </c>
@@ -7294,7 +7264,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2009</v>
       </c>
@@ -7338,13 +7308,13 @@
         <v>243</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>1267</v>
+        <v>1257</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2009</v>
       </c>
@@ -7379,13 +7349,13 @@
         <v>282</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>1269</v>
+        <v>1259</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2009</v>
       </c>
@@ -7432,13 +7402,13 @@
         <v>289</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>1271</v>
+        <v>1261</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2009</v>
       </c>
@@ -7479,13 +7449,13 @@
         <v>296</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>1273</v>
+        <v>1263</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2012</v>
       </c>
@@ -7526,13 +7496,13 @@
         <v>302</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>1275</v>
+        <v>1265</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2008</v>
       </c>
@@ -7573,13 +7543,13 @@
         <v>307</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>1277</v>
+        <v>1267</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2004</v>
       </c>
@@ -7617,13 +7587,13 @@
         <v>314</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>1279</v>
+        <v>1269</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2006</v>
       </c>
@@ -7661,13 +7631,13 @@
         <v>320</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>1281</v>
+        <v>1271</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2009</v>
       </c>
@@ -7699,13 +7669,13 @@
         <v>325</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>1283</v>
+        <v>1273</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2009</v>
       </c>
@@ -7746,63 +7716,63 @@
         <v>331</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>1285</v>
+        <v>1275</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2007</v>
       </c>
       <c r="B47">
         <v>7</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47">
+        <v>2020</v>
+      </c>
+      <c r="D47" t="s">
         <v>332</v>
-      </c>
-      <c r="D47" t="s">
-        <v>333</v>
       </c>
       <c r="E47" t="s">
         <v>237</v>
       </c>
       <c r="F47" t="s">
+        <v>333</v>
+      </c>
+      <c r="H47" t="s">
         <v>334</v>
-      </c>
-      <c r="H47" t="s">
-        <v>335</v>
       </c>
       <c r="J47" t="s">
         <v>14</v>
       </c>
       <c r="K47" t="s">
+        <v>335</v>
+      </c>
+      <c r="N47" t="s">
         <v>336</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>337</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>338</v>
       </c>
-      <c r="P47" t="s">
+      <c r="R47" t="s">
         <v>339</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>340</v>
       </c>
-      <c r="S47" t="s">
-        <v>341</v>
-      </c>
       <c r="U47" s="1" t="s">
-        <v>1287</v>
+        <v>1277</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="90" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="87.15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2006</v>
       </c>
@@ -7813,19 +7783,19 @@
         <v>2020</v>
       </c>
       <c r="D48" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E48" t="s">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G48" t="s">
         <v>164</v>
       </c>
       <c r="H48" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J48" t="s">
         <v>76</v>
@@ -7834,34 +7804,34 @@
         <v>24</v>
       </c>
       <c r="L48" t="s">
+        <v>344</v>
+      </c>
+      <c r="N48" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="O48" t="s">
         <v>27</v>
       </c>
       <c r="P48" t="s">
+        <v>346</v>
+      </c>
+      <c r="R48" t="s">
         <v>347</v>
       </c>
-      <c r="R48" t="s">
+      <c r="S48" t="s">
         <v>348</v>
       </c>
-      <c r="S48" t="s">
+      <c r="T48" t="s">
         <v>349</v>
       </c>
-      <c r="T48" t="s">
-        <v>350</v>
-      </c>
       <c r="U48" s="1" t="s">
-        <v>1289</v>
+        <v>1279</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2012</v>
       </c>
@@ -7872,19 +7842,19 @@
         <v>2020</v>
       </c>
       <c r="D49" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E49" t="s">
         <v>327</v>
       </c>
       <c r="F49" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G49" t="s">
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J49" t="s">
         <v>76</v>
@@ -7893,25 +7863,25 @@
         <v>24</v>
       </c>
       <c r="L49" t="s">
+        <v>353</v>
+      </c>
+      <c r="N49" t="s">
         <v>354</v>
       </c>
-      <c r="N49" t="s">
+      <c r="P49" t="s">
         <v>355</v>
       </c>
-      <c r="P49" t="s">
+      <c r="T49" t="s">
         <v>356</v>
       </c>
-      <c r="T49" t="s">
-        <v>357</v>
-      </c>
       <c r="U49" s="1" t="s">
-        <v>1291</v>
+        <v>1281</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="180" x14ac:dyDescent="0.25">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="174.25" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2009</v>
       </c>
@@ -7934,40 +7904,40 @@
         <v>245</v>
       </c>
       <c r="J50" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K50" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="s">
+        <v>358</v>
+      </c>
+      <c r="N50" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="O50" t="s">
         <v>27</v>
       </c>
       <c r="P50" t="s">
+        <v>360</v>
+      </c>
+      <c r="R50" t="s">
         <v>361</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>362</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>363</v>
       </c>
-      <c r="T50" t="s">
-        <v>364</v>
-      </c>
       <c r="U50" s="1" t="s">
-        <v>1293</v>
+        <v>1283</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2005</v>
       </c>
@@ -7978,16 +7948,16 @@
         <v>2020</v>
       </c>
       <c r="D51" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E51" t="s">
         <v>1</v>
       </c>
       <c r="F51" t="s">
+        <v>365</v>
+      </c>
+      <c r="H51" t="s">
         <v>366</v>
-      </c>
-      <c r="H51" t="s">
-        <v>367</v>
       </c>
       <c r="J51" t="s">
         <v>76</v>
@@ -7996,28 +7966,28 @@
         <v>24</v>
       </c>
       <c r="L51" t="s">
+        <v>367</v>
+      </c>
+      <c r="N51" t="s">
         <v>368</v>
       </c>
-      <c r="N51" t="s">
+      <c r="P51" t="s">
         <v>369</v>
       </c>
-      <c r="P51" t="s">
+      <c r="S51" t="s">
         <v>370</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>371</v>
       </c>
-      <c r="T51" t="s">
-        <v>372</v>
-      </c>
       <c r="U51" s="1" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2011</v>
       </c>
@@ -8028,16 +7998,16 @@
         <v>2020</v>
       </c>
       <c r="D52" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E52" t="s">
         <v>1</v>
       </c>
       <c r="F52" t="s">
+        <v>373</v>
+      </c>
+      <c r="H52" t="s">
         <v>374</v>
-      </c>
-      <c r="H52" t="s">
-        <v>375</v>
       </c>
       <c r="J52" t="s">
         <v>76</v>
@@ -8046,28 +8016,28 @@
         <v>24</v>
       </c>
       <c r="N52" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O52" t="s">
         <v>27</v>
       </c>
       <c r="P52" t="s">
+        <v>376</v>
+      </c>
+      <c r="S52" t="s">
         <v>377</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>378</v>
       </c>
-      <c r="T52" t="s">
-        <v>379</v>
-      </c>
       <c r="U52" s="1" t="s">
-        <v>1297</v>
+        <v>1287</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" ht="105" x14ac:dyDescent="0.25">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="87.15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2010</v>
       </c>
@@ -8078,52 +8048,52 @@
         <v>2020</v>
       </c>
       <c r="D53" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E53" t="s">
         <v>1</v>
       </c>
       <c r="F53" t="s">
+        <v>380</v>
+      </c>
+      <c r="H53" t="s">
         <v>381</v>
-      </c>
-      <c r="H53" t="s">
-        <v>382</v>
       </c>
       <c r="J53" t="s">
         <v>76</v>
       </c>
       <c r="K53" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="L53" t="s">
         <v>383</v>
       </c>
-      <c r="L53" t="s">
+      <c r="N53" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="O53" t="s">
         <v>27</v>
       </c>
       <c r="P53" t="s">
+        <v>385</v>
+      </c>
+      <c r="R53" t="s">
+        <v>347</v>
+      </c>
+      <c r="S53" t="s">
+        <v>348</v>
+      </c>
+      <c r="T53" t="s">
         <v>386</v>
       </c>
-      <c r="R53" t="s">
-        <v>348</v>
-      </c>
-      <c r="S53" t="s">
-        <v>349</v>
-      </c>
-      <c r="T53" t="s">
-        <v>387</v>
-      </c>
       <c r="U53" s="1" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" ht="120" x14ac:dyDescent="0.25">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="101.65" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2002</v>
       </c>
@@ -8134,84 +8104,84 @@
         <v>2020</v>
       </c>
       <c r="D54" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E54" t="s">
         <v>1</v>
       </c>
       <c r="F54" t="s">
+        <v>388</v>
+      </c>
+      <c r="H54" t="s">
         <v>389</v>
-      </c>
-      <c r="H54" t="s">
-        <v>390</v>
       </c>
       <c r="J54" t="s">
         <v>23</v>
       </c>
       <c r="K54" t="s">
+        <v>390</v>
+      </c>
+      <c r="N54" t="s">
         <v>391</v>
       </c>
-      <c r="N54" t="s">
+      <c r="P54" t="s">
         <v>392</v>
       </c>
-      <c r="P54" t="s">
+      <c r="S54" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="S54" s="1" t="s">
+      <c r="T54" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="T54" s="1" t="s">
+      <c r="U54" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="87.15" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>395</v>
-      </c>
-      <c r="U54" s="1" t="s">
-        <v>1301</v>
-      </c>
-      <c r="V54" s="1" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>396</v>
       </c>
       <c r="C55">
         <v>2020</v>
       </c>
       <c r="D55" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E55" t="s">
         <v>237</v>
       </c>
       <c r="F55" t="s">
+        <v>397</v>
+      </c>
+      <c r="H55" t="s">
         <v>398</v>
-      </c>
-      <c r="H55" t="s">
-        <v>399</v>
       </c>
       <c r="J55" t="s">
         <v>270</v>
       </c>
       <c r="K55" t="s">
+        <v>399</v>
+      </c>
+      <c r="P55" t="s">
         <v>400</v>
       </c>
-      <c r="P55" t="s">
+      <c r="S55" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="S55" s="1" t="s">
+      <c r="T55" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="T55" s="1" t="s">
-        <v>403</v>
-      </c>
       <c r="U55" s="1" t="s">
-        <v>1303</v>
+        <v>1293</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" ht="195" x14ac:dyDescent="0.25">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="174.25" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2003</v>
       </c>
@@ -8222,46 +8192,46 @@
         <v>2020</v>
       </c>
       <c r="D56" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E56" t="s">
         <v>1</v>
       </c>
       <c r="F56" t="s">
+        <v>404</v>
+      </c>
+      <c r="J56" t="s">
         <v>405</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>406</v>
       </c>
-      <c r="K56" t="s">
+      <c r="N56" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="O56" t="s">
         <v>27</v>
       </c>
       <c r="P56" t="s">
+        <v>408</v>
+      </c>
+      <c r="R56" t="s">
         <v>409</v>
       </c>
-      <c r="R56" t="s">
+      <c r="S56" t="s">
         <v>410</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" t="s">
         <v>411</v>
       </c>
-      <c r="T56" t="s">
-        <v>412</v>
-      </c>
       <c r="U56" s="1" t="s">
-        <v>1305</v>
+        <v>1295</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2005</v>
       </c>
@@ -8272,16 +8242,16 @@
         <v>2020</v>
       </c>
       <c r="D57" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E57" t="s">
         <v>1</v>
       </c>
       <c r="F57" t="s">
+        <v>413</v>
+      </c>
+      <c r="H57" t="s">
         <v>414</v>
-      </c>
-      <c r="H57" t="s">
-        <v>415</v>
       </c>
       <c r="J57" t="s">
         <v>76</v>
@@ -8290,19 +8260,19 @@
         <v>24</v>
       </c>
       <c r="P57" t="s">
+        <v>415</v>
+      </c>
+      <c r="T57" t="s">
         <v>416</v>
       </c>
-      <c r="T57" t="s">
-        <v>417</v>
-      </c>
       <c r="U57" s="1" t="s">
-        <v>1307</v>
+        <v>1297</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2005</v>
       </c>
@@ -8313,16 +8283,16 @@
         <v>2020</v>
       </c>
       <c r="D58" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E58" t="s">
         <v>1</v>
       </c>
       <c r="F58" t="s">
+        <v>419</v>
+      </c>
+      <c r="H58" t="s">
         <v>420</v>
-      </c>
-      <c r="H58" t="s">
-        <v>421</v>
       </c>
       <c r="J58" t="s">
         <v>43</v>
@@ -8331,42 +8301,42 @@
         <v>69</v>
       </c>
       <c r="P58" t="s">
+        <v>421</v>
+      </c>
+      <c r="R58" t="s">
         <v>422</v>
       </c>
-      <c r="R58" t="s">
+      <c r="S58" t="s">
         <v>423</v>
       </c>
-      <c r="S58" t="s">
+      <c r="T58" t="s">
         <v>424</v>
       </c>
-      <c r="T58" t="s">
+      <c r="U58" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>425</v>
       </c>
-      <c r="U58" s="1" t="s">
-        <v>1309</v>
-      </c>
-      <c r="V58" s="1" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="C59">
+        <v>2020</v>
+      </c>
+      <c r="D59" t="s">
         <v>426</v>
-      </c>
-      <c r="C59" t="s">
-        <v>427</v>
-      </c>
-      <c r="D59" t="s">
-        <v>428</v>
       </c>
       <c r="E59" t="s">
         <v>237</v>
       </c>
       <c r="F59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H59" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J59" t="s">
         <v>270</v>
@@ -8375,13 +8345,13 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
+        <v>429</v>
+      </c>
+      <c r="R59" t="s">
+        <v>430</v>
+      </c>
+      <c r="T59" t="s">
         <v>431</v>
-      </c>
-      <c r="R59" t="s">
-        <v>432</v>
-      </c>
-      <c r="T59" t="s">
-        <v>433</v>
       </c>
       <c r="U59" t="s">
         <v>122</v>
@@ -8390,27 +8360,27 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" ht="58.1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1909</v>
       </c>
       <c r="B60">
         <v>9</v>
       </c>
-      <c r="C60" t="s">
-        <v>434</v>
+      <c r="C60">
+        <v>2020</v>
       </c>
       <c r="D60" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E60" t="s">
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H60" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J60" t="s">
         <v>76</v>
@@ -8419,22 +8389,22 @@
         <v>207</v>
       </c>
       <c r="P60" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="S60" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="T60" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1902</v>
       </c>
@@ -8445,49 +8415,49 @@
         <v>2019</v>
       </c>
       <c r="D61" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E61" t="s">
         <v>237</v>
       </c>
       <c r="F61" t="s">
+        <v>439</v>
+      </c>
+      <c r="H61" t="s">
+        <v>440</v>
+      </c>
+      <c r="J61" t="s">
+        <v>441</v>
+      </c>
+      <c r="K61" t="s">
         <v>442</v>
       </c>
-      <c r="H61" t="s">
+      <c r="L61" t="s">
         <v>443</v>
       </c>
-      <c r="J61" t="s">
+      <c r="M61" t="s">
         <v>444</v>
       </c>
-      <c r="K61" t="s">
+      <c r="N61" t="s">
         <v>445</v>
       </c>
-      <c r="L61" t="s">
+      <c r="P61" t="s">
         <v>446</v>
       </c>
-      <c r="M61" t="s">
+      <c r="S61" t="s">
         <v>447</v>
       </c>
-      <c r="N61" t="s">
+      <c r="T61" t="s">
         <v>448</v>
       </c>
-      <c r="P61" t="s">
-        <v>449</v>
-      </c>
-      <c r="S61" t="s">
-        <v>450</v>
-      </c>
-      <c r="T61" t="s">
-        <v>451</v>
-      </c>
       <c r="U61" s="1" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1910</v>
       </c>
@@ -8498,16 +8468,16 @@
         <v>2019</v>
       </c>
       <c r="D62" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E62" t="s">
         <v>237</v>
       </c>
       <c r="F62" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H62" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J62" t="s">
         <v>270</v>
@@ -8516,25 +8486,25 @@
         <v>15</v>
       </c>
       <c r="O62" t="s">
+        <v>452</v>
+      </c>
+      <c r="R62" t="s">
+        <v>453</v>
+      </c>
+      <c r="S62" t="s">
+        <v>454</v>
+      </c>
+      <c r="T62" t="s">
         <v>455</v>
       </c>
-      <c r="R62" t="s">
-        <v>456</v>
-      </c>
-      <c r="S62" t="s">
-        <v>457</v>
-      </c>
-      <c r="T62" t="s">
-        <v>458</v>
-      </c>
       <c r="U62" s="1" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1904</v>
       </c>
@@ -8545,16 +8515,16 @@
         <v>2019</v>
       </c>
       <c r="D63" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E63" t="s">
         <v>237</v>
       </c>
       <c r="F63" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H63" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="J63" t="s">
         <v>270</v>
@@ -8563,25 +8533,25 @@
         <v>15</v>
       </c>
       <c r="O63" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="R63" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="T63" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" ht="180" x14ac:dyDescent="0.25">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="174.25" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1912</v>
       </c>
@@ -8592,16 +8562,16 @@
         <v>2019</v>
       </c>
       <c r="D64" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E64" t="s">
         <v>145</v>
       </c>
       <c r="F64" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H64" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="J64" t="s">
         <v>76</v>
@@ -8610,34 +8580,34 @@
         <v>24</v>
       </c>
       <c r="M64" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="O64" t="s">
         <v>27</v>
       </c>
       <c r="P64" t="s">
+        <v>466</v>
+      </c>
+      <c r="R64" t="s">
+        <v>467</v>
+      </c>
+      <c r="S64" t="s">
+        <v>468</v>
+      </c>
+      <c r="T64" t="s">
         <v>469</v>
       </c>
-      <c r="R64" t="s">
-        <v>470</v>
-      </c>
-      <c r="S64" t="s">
-        <v>471</v>
-      </c>
-      <c r="T64" t="s">
-        <v>472</v>
-      </c>
       <c r="U64" s="1" t="s">
-        <v>1318</v>
+        <v>1308</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" ht="58.1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1906</v>
       </c>
@@ -8648,16 +8618,16 @@
         <v>2019</v>
       </c>
       <c r="D65" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E65" t="s">
         <v>237</v>
       </c>
       <c r="F65" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H65" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="J65" t="s">
         <v>270</v>
@@ -8666,25 +8636,25 @@
         <v>15</v>
       </c>
       <c r="O65" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="R65" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="S65" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="T65" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>1320</v>
+        <v>1310</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" ht="58.1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1912</v>
       </c>
@@ -8695,7 +8665,7 @@
         <v>2019</v>
       </c>
       <c r="D66" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E66" t="s">
         <v>1</v>
@@ -8704,7 +8674,7 @@
         <v>40</v>
       </c>
       <c r="H66" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="J66" t="s">
         <v>76</v>
@@ -8713,31 +8683,31 @@
         <v>24</v>
       </c>
       <c r="M66" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="N66" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="O66" t="s">
         <v>27</v>
       </c>
       <c r="P66" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="S66" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="T66" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>1322</v>
+        <v>1312</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1905</v>
       </c>
@@ -8748,16 +8718,16 @@
         <v>2019</v>
       </c>
       <c r="D67" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E67" t="s">
         <v>237</v>
       </c>
       <c r="F67" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H67" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="J67" t="s">
         <v>270</v>
@@ -8766,31 +8736,31 @@
         <v>15</v>
       </c>
       <c r="N67" t="s">
+        <v>485</v>
+      </c>
+      <c r="O67" t="s">
+        <v>486</v>
+      </c>
+      <c r="P67" t="s">
+        <v>487</v>
+      </c>
+      <c r="R67" t="s">
         <v>488</v>
       </c>
-      <c r="O67" t="s">
+      <c r="S67" t="s">
         <v>489</v>
       </c>
-      <c r="P67" t="s">
+      <c r="T67" t="s">
         <v>490</v>
       </c>
-      <c r="R67" t="s">
-        <v>491</v>
-      </c>
-      <c r="S67" t="s">
-        <v>492</v>
-      </c>
-      <c r="T67" t="s">
-        <v>493</v>
-      </c>
       <c r="U67" s="1" t="s">
-        <v>1324</v>
+        <v>1314</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" ht="90" x14ac:dyDescent="0.25">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" ht="87.15" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1907</v>
       </c>
@@ -8801,49 +8771,49 @@
         <v>2019</v>
       </c>
       <c r="D68" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E68" t="s">
         <v>237</v>
       </c>
       <c r="F68" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="H68" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="J68" t="s">
         <v>270</v>
       </c>
       <c r="K68" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N68" t="s">
+        <v>494</v>
+      </c>
+      <c r="O68" t="s">
+        <v>495</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="R68" t="s">
         <v>497</v>
       </c>
-      <c r="O68" t="s">
+      <c r="S68" t="s">
         <v>498</v>
       </c>
-      <c r="P68" s="1" t="s">
+      <c r="T68" t="s">
         <v>499</v>
       </c>
-      <c r="R68" t="s">
-        <v>500</v>
-      </c>
-      <c r="S68" t="s">
-        <v>501</v>
-      </c>
-      <c r="T68" t="s">
-        <v>502</v>
-      </c>
       <c r="U68" s="1" t="s">
-        <v>1326</v>
+        <v>1316</v>
       </c>
       <c r="V68" s="1" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1906</v>
       </c>
@@ -8854,40 +8824,40 @@
         <v>2019</v>
       </c>
       <c r="D69" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E69" t="s">
         <v>237</v>
       </c>
       <c r="F69" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H69" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="J69" t="s">
         <v>270</v>
       </c>
       <c r="K69" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P69" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="S69" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="T69" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>1328</v>
+        <v>1318</v>
       </c>
       <c r="V69" s="1" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" ht="58.1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1905</v>
       </c>
@@ -8898,16 +8868,16 @@
         <v>2019</v>
       </c>
       <c r="D70" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E70" t="s">
         <v>327</v>
       </c>
       <c r="F70" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H70" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="J70" t="s">
         <v>76</v>
@@ -8916,31 +8886,31 @@
         <v>108</v>
       </c>
       <c r="L70" t="s">
+        <v>509</v>
+      </c>
+      <c r="N70" t="s">
+        <v>510</v>
+      </c>
+      <c r="P70" t="s">
+        <v>511</v>
+      </c>
+      <c r="R70" t="s">
         <v>512</v>
       </c>
-      <c r="N70" t="s">
+      <c r="S70" t="s">
         <v>513</v>
       </c>
-      <c r="P70" t="s">
+      <c r="T70" t="s">
         <v>514</v>
       </c>
-      <c r="R70" t="s">
-        <v>515</v>
-      </c>
-      <c r="S70" t="s">
-        <v>516</v>
-      </c>
-      <c r="T70" t="s">
-        <v>517</v>
-      </c>
       <c r="U70" s="1" t="s">
-        <v>1330</v>
+        <v>1320</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" ht="58.1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1902</v>
       </c>
@@ -8951,7 +8921,7 @@
         <v>2019</v>
       </c>
       <c r="D71" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E71" t="s">
         <v>1</v>
@@ -8960,37 +8930,37 @@
         <v>49</v>
       </c>
       <c r="H71" t="s">
+        <v>516</v>
+      </c>
+      <c r="J71" t="s">
+        <v>517</v>
+      </c>
+      <c r="K71" t="s">
+        <v>518</v>
+      </c>
+      <c r="N71" t="s">
         <v>519</v>
-      </c>
-      <c r="J71" t="s">
-        <v>520</v>
-      </c>
-      <c r="K71" t="s">
-        <v>521</v>
-      </c>
-      <c r="N71" t="s">
-        <v>522</v>
       </c>
       <c r="O71" t="s">
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="S71" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>1332</v>
+        <v>1322</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1905</v>
       </c>
@@ -9001,101 +8971,101 @@
         <v>2019</v>
       </c>
       <c r="D72" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E72" t="s">
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H72" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="J72" t="s">
         <v>127</v>
       </c>
       <c r="K72" t="s">
+        <v>526</v>
+      </c>
+      <c r="N72" t="s">
+        <v>527</v>
+      </c>
+      <c r="P72" t="s">
+        <v>528</v>
+      </c>
+      <c r="S72" t="s">
         <v>529</v>
       </c>
-      <c r="N72" t="s">
+      <c r="T72" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="P72" t="s">
+      <c r="U72" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>531</v>
-      </c>
-      <c r="S72" t="s">
-        <v>532</v>
-      </c>
-      <c r="T72" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="U72" s="1" t="s">
-        <v>1334</v>
-      </c>
-      <c r="V72" s="1" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>534</v>
       </c>
       <c r="C73">
         <v>2019</v>
       </c>
       <c r="D73" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E73" t="s">
         <v>237</v>
       </c>
       <c r="F73" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="H73" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="J73" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="K73" t="s">
         <v>24</v>
       </c>
       <c r="N73" t="s">
+        <v>536</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="S73" t="s">
+        <v>538</v>
+      </c>
+      <c r="T73" t="s">
         <v>539</v>
       </c>
-      <c r="P73" s="1" t="s">
+      <c r="U73" t="s">
         <v>540</v>
-      </c>
-      <c r="S73" t="s">
-        <v>541</v>
-      </c>
-      <c r="T73" t="s">
-        <v>542</v>
-      </c>
-      <c r="U73" t="s">
-        <v>543</v>
       </c>
       <c r="V73" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>544</v>
-      </c>
-      <c r="C74" t="s">
-        <v>434</v>
+        <v>541</v>
+      </c>
+      <c r="C74">
+        <v>2019</v>
       </c>
       <c r="D74" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E74" t="s">
         <v>237</v>
       </c>
       <c r="H74" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="J74" t="s">
         <v>76</v>
@@ -9104,31 +9074,31 @@
         <v>24</v>
       </c>
       <c r="M74" t="s">
+        <v>544</v>
+      </c>
+      <c r="N74" t="s">
+        <v>545</v>
+      </c>
+      <c r="P74" t="s">
+        <v>546</v>
+      </c>
+      <c r="R74" t="s">
         <v>547</v>
       </c>
-      <c r="N74" t="s">
+      <c r="S74" t="s">
         <v>548</v>
       </c>
-      <c r="P74" t="s">
+      <c r="T74" t="s">
         <v>549</v>
       </c>
-      <c r="R74" t="s">
-        <v>550</v>
-      </c>
-      <c r="S74" t="s">
-        <v>551</v>
-      </c>
-      <c r="T74" t="s">
-        <v>552</v>
-      </c>
       <c r="U74" s="1" t="s">
-        <v>1336</v>
+        <v>1326</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" ht="58.1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1907</v>
       </c>
@@ -9139,16 +9109,16 @@
         <v>2019</v>
       </c>
       <c r="D75" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E75" t="s">
         <v>237</v>
       </c>
       <c r="F75" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="H75" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J75" t="s">
         <v>270</v>
@@ -9157,28 +9127,28 @@
         <v>15</v>
       </c>
       <c r="N75" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="O75" t="s">
+        <v>486</v>
+      </c>
+      <c r="R75" t="s">
+        <v>553</v>
+      </c>
+      <c r="S75" t="s">
         <v>489</v>
       </c>
-      <c r="R75" t="s">
-        <v>556</v>
-      </c>
-      <c r="S75" t="s">
-        <v>492</v>
-      </c>
       <c r="T75" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="U75" s="1" t="s">
-        <v>1338</v>
+        <v>1328</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" ht="58.1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1912</v>
       </c>
@@ -9189,43 +9159,43 @@
         <v>2019</v>
       </c>
       <c r="D76" t="s">
+        <v>555</v>
+      </c>
+      <c r="E76" t="s">
+        <v>556</v>
+      </c>
+      <c r="F76" t="s">
+        <v>557</v>
+      </c>
+      <c r="H76" t="s">
         <v>558</v>
-      </c>
-      <c r="E76" t="s">
-        <v>559</v>
-      </c>
-      <c r="F76" t="s">
-        <v>560</v>
-      </c>
-      <c r="H76" t="s">
-        <v>561</v>
       </c>
       <c r="J76" t="s">
         <v>270</v>
       </c>
       <c r="K76" t="s">
+        <v>559</v>
+      </c>
+      <c r="N76" t="s">
+        <v>560</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="S76" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="N76" t="s">
+      <c r="T76" t="s">
         <v>563</v>
       </c>
-      <c r="P76" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="S76" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="T76" t="s">
-        <v>566</v>
-      </c>
       <c r="U76" s="1" t="s">
-        <v>1340</v>
+        <v>1330</v>
       </c>
       <c r="V76" s="1" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1911</v>
       </c>
@@ -9236,16 +9206,16 @@
         <v>2019</v>
       </c>
       <c r="D77" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E77" t="s">
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H77" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="J77" t="s">
         <v>43</v>
@@ -9254,25 +9224,25 @@
         <v>24</v>
       </c>
       <c r="N77" t="s">
+        <v>567</v>
+      </c>
+      <c r="P77" t="s">
+        <v>568</v>
+      </c>
+      <c r="S77" t="s">
+        <v>569</v>
+      </c>
+      <c r="T77" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="P77" t="s">
-        <v>571</v>
-      </c>
-      <c r="S77" t="s">
-        <v>572</v>
-      </c>
-      <c r="T77" s="1" t="s">
-        <v>573</v>
-      </c>
       <c r="U77" s="1" t="s">
-        <v>1342</v>
+        <v>1332</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1801</v>
       </c>
@@ -9283,49 +9253,49 @@
         <v>2018</v>
       </c>
       <c r="D78" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E78" t="s">
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H78" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="J78" t="s">
         <v>76</v>
       </c>
       <c r="K78" t="s">
+        <v>574</v>
+      </c>
+      <c r="N78" t="s">
+        <v>575</v>
+      </c>
+      <c r="O78" t="s">
+        <v>576</v>
+      </c>
+      <c r="P78" t="s">
         <v>577</v>
       </c>
-      <c r="N78" t="s">
+      <c r="R78" t="s">
         <v>578</v>
       </c>
-      <c r="O78" t="s">
+      <c r="S78" t="s">
         <v>579</v>
       </c>
-      <c r="P78" t="s">
+      <c r="T78" t="s">
         <v>580</v>
       </c>
-      <c r="R78" t="s">
-        <v>581</v>
-      </c>
-      <c r="S78" t="s">
-        <v>582</v>
-      </c>
-      <c r="T78" t="s">
-        <v>583</v>
-      </c>
       <c r="U78" s="1" t="s">
-        <v>1344</v>
+        <v>1334</v>
       </c>
       <c r="V78" s="1" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" ht="240" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" ht="232.35" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1806</v>
       </c>
@@ -9333,19 +9303,19 @@
         <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D79" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E79" t="s">
         <v>237</v>
       </c>
       <c r="F79" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H79" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="J79" t="s">
         <v>14</v>
@@ -9354,66 +9324,66 @@
         <v>15</v>
       </c>
       <c r="O79" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R79" t="s">
+        <v>585</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="T79" t="s">
+        <v>587</v>
+      </c>
+      <c r="U79" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="V79" s="1" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" ht="58.1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>588</v>
-      </c>
-      <c r="S79" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="T79" t="s">
-        <v>590</v>
-      </c>
-      <c r="U79" s="1" t="s">
-        <v>1346</v>
-      </c>
-      <c r="V79" s="1" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>591</v>
       </c>
       <c r="C80">
         <v>2018</v>
       </c>
       <c r="D80" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E80" t="s">
         <v>237</v>
       </c>
       <c r="H80" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="J80" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="K80" t="s">
         <v>108</v>
       </c>
       <c r="N80" t="s">
+        <v>592</v>
+      </c>
+      <c r="P80" t="s">
+        <v>593</v>
+      </c>
+      <c r="S80" t="s">
+        <v>594</v>
+      </c>
+      <c r="T80" t="s">
         <v>595</v>
       </c>
-      <c r="P80" t="s">
-        <v>596</v>
-      </c>
-      <c r="S80" t="s">
-        <v>597</v>
-      </c>
-      <c r="T80" t="s">
-        <v>598</v>
-      </c>
       <c r="U80" s="1" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1809</v>
       </c>
@@ -9424,49 +9394,49 @@
         <v>2018</v>
       </c>
       <c r="D81" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E81" t="s">
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H81" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="J81" t="s">
         <v>23</v>
       </c>
       <c r="K81" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="N81" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="O81" t="s">
         <v>27</v>
       </c>
       <c r="P81" t="s">
+        <v>601</v>
+      </c>
+      <c r="R81" t="s">
+        <v>602</v>
+      </c>
+      <c r="S81" t="s">
+        <v>603</v>
+      </c>
+      <c r="T81" t="s">
         <v>604</v>
       </c>
-      <c r="R81" t="s">
-        <v>605</v>
-      </c>
-      <c r="S81" t="s">
-        <v>606</v>
-      </c>
-      <c r="T81" t="s">
-        <v>607</v>
-      </c>
       <c r="U81" s="1" t="s">
-        <v>1350</v>
+        <v>1340</v>
       </c>
       <c r="V81" s="1" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" ht="58.1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1805</v>
       </c>
@@ -9477,49 +9447,49 @@
         <v>2018</v>
       </c>
       <c r="D82" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E82" t="s">
         <v>237</v>
       </c>
       <c r="F82" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H82" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="J82" t="s">
         <v>14</v>
       </c>
       <c r="K82" t="s">
+        <v>608</v>
+      </c>
+      <c r="N82" t="s">
+        <v>609</v>
+      </c>
+      <c r="O82" t="s">
+        <v>610</v>
+      </c>
+      <c r="P82" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="N82" t="s">
+      <c r="R82" t="s">
         <v>612</v>
       </c>
-      <c r="O82" t="s">
+      <c r="S82" t="s">
         <v>613</v>
       </c>
-      <c r="P82" s="1" t="s">
+      <c r="T82" t="s">
         <v>614</v>
       </c>
-      <c r="R82" t="s">
-        <v>615</v>
-      </c>
-      <c r="S82" t="s">
-        <v>616</v>
-      </c>
-      <c r="T82" t="s">
-        <v>617</v>
-      </c>
       <c r="U82" s="1" t="s">
-        <v>1352</v>
+        <v>1342</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1803</v>
       </c>
@@ -9530,16 +9500,16 @@
         <v>2018</v>
       </c>
       <c r="D83" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E83" t="s">
         <v>237</v>
       </c>
       <c r="F83" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="H83" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J83" t="s">
         <v>14</v>
@@ -9548,28 +9518,28 @@
         <v>15</v>
       </c>
       <c r="N83" t="s">
+        <v>620</v>
+      </c>
+      <c r="O83" t="s">
+        <v>486</v>
+      </c>
+      <c r="P83" t="s">
+        <v>621</v>
+      </c>
+      <c r="R83" t="s">
+        <v>622</v>
+      </c>
+      <c r="T83" t="s">
         <v>623</v>
       </c>
-      <c r="O83" t="s">
-        <v>489</v>
-      </c>
-      <c r="P83" t="s">
-        <v>624</v>
-      </c>
-      <c r="R83" t="s">
-        <v>625</v>
-      </c>
-      <c r="T83" t="s">
-        <v>626</v>
-      </c>
       <c r="U83" s="1" t="s">
-        <v>1354</v>
+        <v>1344</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" ht="105" x14ac:dyDescent="0.25">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" ht="87.15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1811</v>
       </c>
@@ -9580,46 +9550,46 @@
         <v>2018</v>
       </c>
       <c r="D84" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E84" t="s">
         <v>237</v>
       </c>
       <c r="F84" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H84" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="J84" t="s">
         <v>14</v>
       </c>
       <c r="K84" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N84" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="O84" t="s">
+        <v>486</v>
+      </c>
+      <c r="P84" t="s">
+        <v>628</v>
+      </c>
+      <c r="R84" t="s">
+        <v>629</v>
+      </c>
+      <c r="T84" t="s">
         <v>630</v>
       </c>
-      <c r="O84" t="s">
-        <v>489</v>
-      </c>
-      <c r="P84" t="s">
-        <v>631</v>
-      </c>
-      <c r="R84" t="s">
-        <v>632</v>
-      </c>
-      <c r="T84" t="s">
-        <v>633</v>
-      </c>
       <c r="U84" s="1" t="s">
-        <v>1356</v>
+        <v>1346</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1810</v>
       </c>
@@ -9630,16 +9600,16 @@
         <v>2018</v>
       </c>
       <c r="D85" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E85" t="s">
         <v>237</v>
       </c>
       <c r="F85" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="H85" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="J85" t="s">
         <v>14</v>
@@ -9648,78 +9618,78 @@
         <v>15</v>
       </c>
       <c r="N85" t="s">
+        <v>634</v>
+      </c>
+      <c r="O85" t="s">
+        <v>486</v>
+      </c>
+      <c r="P85" t="s">
+        <v>635</v>
+      </c>
+      <c r="R85" t="s">
+        <v>636</v>
+      </c>
+      <c r="T85" t="s">
         <v>637</v>
       </c>
-      <c r="O85" t="s">
-        <v>489</v>
-      </c>
-      <c r="P85" t="s">
-        <v>638</v>
-      </c>
-      <c r="R85" t="s">
-        <v>639</v>
-      </c>
-      <c r="T85" t="s">
-        <v>640</v>
-      </c>
       <c r="U85" s="1" t="s">
-        <v>1358</v>
+        <v>1348</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1706</v>
       </c>
       <c r="B86">
         <v>6</v>
       </c>
-      <c r="C86" t="s">
-        <v>641</v>
+      <c r="C86">
+        <v>2017</v>
       </c>
       <c r="D86" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E86" t="s">
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H86" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="J86" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="K86" t="s">
         <v>6</v>
       </c>
       <c r="N86" t="s">
+        <v>643</v>
+      </c>
+      <c r="O86" t="s">
+        <v>644</v>
+      </c>
+      <c r="P86" t="s">
+        <v>645</v>
+      </c>
+      <c r="R86" t="s">
         <v>646</v>
       </c>
-      <c r="O86" t="s">
+      <c r="T86" t="s">
         <v>647</v>
       </c>
-      <c r="P86" t="s">
-        <v>648</v>
-      </c>
-      <c r="R86" t="s">
-        <v>649</v>
-      </c>
-      <c r="T86" t="s">
-        <v>650</v>
-      </c>
       <c r="U86" s="1" t="s">
-        <v>1360</v>
+        <v>1350</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" ht="90" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1803</v>
       </c>
@@ -9730,99 +9700,99 @@
         <v>2018</v>
       </c>
       <c r="D87" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E87" t="s">
         <v>237</v>
       </c>
       <c r="F87" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="H87" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="J87" t="s">
         <v>14</v>
       </c>
       <c r="K87" t="s">
+        <v>651</v>
+      </c>
+      <c r="N87" t="s">
+        <v>652</v>
+      </c>
+      <c r="O87" t="s">
+        <v>653</v>
+      </c>
+      <c r="P87" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="N87" t="s">
+      <c r="R87" t="s">
         <v>655</v>
       </c>
-      <c r="O87" t="s">
+      <c r="T87" t="s">
         <v>656</v>
       </c>
-      <c r="P87" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="R87" t="s">
-        <v>658</v>
-      </c>
-      <c r="T87" t="s">
-        <v>659</v>
-      </c>
       <c r="U87" s="1" t="s">
-        <v>1362</v>
+        <v>1352</v>
       </c>
       <c r="V87" s="1" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1806</v>
       </c>
       <c r="B88">
         <v>6</v>
       </c>
-      <c r="C88" t="s">
-        <v>660</v>
+      <c r="C88">
+        <v>2018</v>
       </c>
       <c r="D88" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E88" t="s">
         <v>237</v>
       </c>
       <c r="F88" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="H88" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="J88" t="s">
         <v>14</v>
       </c>
       <c r="K88" t="s">
+        <v>660</v>
+      </c>
+      <c r="N88" t="s">
+        <v>661</v>
+      </c>
+      <c r="O88" t="s">
+        <v>662</v>
+      </c>
+      <c r="P88" t="s">
+        <v>663</v>
+      </c>
+      <c r="R88" t="s">
         <v>664</v>
       </c>
-      <c r="N88" t="s">
+      <c r="S88" t="s">
         <v>665</v>
       </c>
-      <c r="O88" t="s">
+      <c r="T88" t="s">
         <v>666</v>
       </c>
-      <c r="P88" t="s">
-        <v>667</v>
-      </c>
-      <c r="R88" t="s">
-        <v>668</v>
-      </c>
-      <c r="S88" t="s">
-        <v>669</v>
-      </c>
-      <c r="T88" t="s">
-        <v>670</v>
-      </c>
       <c r="U88" s="1" t="s">
-        <v>1364</v>
+        <v>1354</v>
       </c>
       <c r="V88" s="1" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1811</v>
       </c>
@@ -9833,37 +9803,37 @@
         <v>2018</v>
       </c>
       <c r="D89" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E89" t="s">
         <v>237</v>
       </c>
       <c r="F89" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="H89" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="J89" t="s">
         <v>14</v>
       </c>
       <c r="K89" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="P89" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="T89" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="U89" s="1" t="s">
-        <v>1366</v>
+        <v>1356</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1810</v>
       </c>
@@ -9874,37 +9844,37 @@
         <v>2018</v>
       </c>
       <c r="D90" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E90" t="s">
         <v>237</v>
       </c>
       <c r="F90" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="H90" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="J90" t="s">
         <v>14</v>
       </c>
       <c r="K90" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="P90" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="T90" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>1368</v>
+        <v>1358</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1811</v>
       </c>
@@ -9915,46 +9885,46 @@
         <v>2018</v>
       </c>
       <c r="D91" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E91" t="s">
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="H91" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="K91" t="s">
         <v>108</v>
       </c>
       <c r="N91" t="s">
+        <v>681</v>
+      </c>
+      <c r="O91" t="s">
+        <v>682</v>
+      </c>
+      <c r="P91" t="s">
+        <v>683</v>
+      </c>
+      <c r="R91" t="s">
+        <v>684</v>
+      </c>
+      <c r="S91" t="s">
         <v>685</v>
       </c>
-      <c r="O91" t="s">
+      <c r="T91" t="s">
         <v>686</v>
       </c>
-      <c r="P91" t="s">
-        <v>687</v>
-      </c>
-      <c r="R91" t="s">
-        <v>688</v>
-      </c>
-      <c r="S91" t="s">
-        <v>689</v>
-      </c>
-      <c r="T91" t="s">
-        <v>690</v>
-      </c>
       <c r="U91" s="1" t="s">
-        <v>1370</v>
+        <v>1360</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1810</v>
       </c>
@@ -9965,46 +9935,46 @@
         <v>2018</v>
       </c>
       <c r="D92" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E92" t="s">
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="H92" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="K92" t="s">
         <v>108</v>
       </c>
       <c r="N92" t="s">
+        <v>689</v>
+      </c>
+      <c r="O92" t="s">
+        <v>690</v>
+      </c>
+      <c r="P92" t="s">
+        <v>691</v>
+      </c>
+      <c r="R92" t="s">
+        <v>692</v>
+      </c>
+      <c r="S92" t="s">
         <v>693</v>
       </c>
-      <c r="O92" t="s">
+      <c r="T92" t="s">
         <v>694</v>
       </c>
-      <c r="P92" t="s">
-        <v>695</v>
-      </c>
-      <c r="R92" t="s">
-        <v>696</v>
-      </c>
-      <c r="S92" t="s">
-        <v>697</v>
-      </c>
-      <c r="T92" t="s">
-        <v>698</v>
-      </c>
       <c r="U92" s="1" t="s">
-        <v>1372</v>
+        <v>1362</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1801</v>
       </c>
@@ -10015,46 +9985,46 @@
         <v>2018</v>
       </c>
       <c r="D93" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E93" t="s">
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H93" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="J93" t="s">
         <v>76</v>
       </c>
       <c r="K93" t="s">
+        <v>698</v>
+      </c>
+      <c r="N93" t="s">
+        <v>699</v>
+      </c>
+      <c r="P93" t="s">
+        <v>700</v>
+      </c>
+      <c r="R93" t="s">
+        <v>701</v>
+      </c>
+      <c r="S93" t="s">
         <v>702</v>
       </c>
-      <c r="N93" t="s">
+      <c r="T93" t="s">
         <v>703</v>
       </c>
-      <c r="P93" t="s">
-        <v>704</v>
-      </c>
-      <c r="R93" t="s">
-        <v>705</v>
-      </c>
-      <c r="S93" t="s">
-        <v>706</v>
-      </c>
-      <c r="T93" t="s">
-        <v>707</v>
-      </c>
       <c r="U93" s="1" t="s">
-        <v>1374</v>
+        <v>1364</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1809</v>
       </c>
@@ -10065,57 +10035,57 @@
         <v>2018</v>
       </c>
       <c r="D94" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="E94" t="s">
         <v>237</v>
       </c>
       <c r="F94" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="H94" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="J94" t="s">
         <v>14</v>
       </c>
       <c r="K94" t="s">
+        <v>707</v>
+      </c>
+      <c r="N94" t="s">
+        <v>708</v>
+      </c>
+      <c r="O94" t="s">
+        <v>610</v>
+      </c>
+      <c r="P94" t="s">
+        <v>709</v>
+      </c>
+      <c r="R94" t="s">
+        <v>612</v>
+      </c>
+      <c r="S94" t="s">
+        <v>613</v>
+      </c>
+      <c r="T94" t="s">
+        <v>710</v>
+      </c>
+      <c r="U94" t="s">
+        <v>615</v>
+      </c>
+      <c r="V94" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" ht="203.3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>711</v>
       </c>
-      <c r="N94" t="s">
+      <c r="C95">
+        <v>2014</v>
+      </c>
+      <c r="D95" t="s">
         <v>712</v>
-      </c>
-      <c r="O94" t="s">
-        <v>613</v>
-      </c>
-      <c r="P94" t="s">
-        <v>713</v>
-      </c>
-      <c r="R94" t="s">
-        <v>615</v>
-      </c>
-      <c r="S94" t="s">
-        <v>616</v>
-      </c>
-      <c r="T94" t="s">
-        <v>714</v>
-      </c>
-      <c r="U94" t="s">
-        <v>618</v>
-      </c>
-      <c r="V94" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" ht="210" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>715</v>
-      </c>
-      <c r="C95" t="s">
-        <v>716</v>
-      </c>
-      <c r="D95" t="s">
-        <v>717</v>
       </c>
       <c r="E95" t="s">
         <v>1</v>
@@ -10124,40 +10094,40 @@
         <v>40</v>
       </c>
       <c r="H95" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="J95" t="s">
         <v>76</v>
       </c>
       <c r="K95" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="O95" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="P95" t="s">
         <v>140</v>
       </c>
       <c r="R95" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="S95" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>1376</v>
+        <v>1366</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" ht="90" x14ac:dyDescent="0.25">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" ht="87.15" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1809</v>
       </c>
@@ -10168,16 +10138,16 @@
         <v>2018</v>
       </c>
       <c r="D96" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="E96" t="s">
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="H96" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="I96" t="s">
         <v>42</v>
@@ -10186,31 +10156,31 @@
         <v>76</v>
       </c>
       <c r="K96" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="N96" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="O96" t="s">
         <v>27</v>
       </c>
       <c r="P96" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="S96" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="T96" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>1378</v>
+        <v>1368</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1812</v>
       </c>
@@ -10221,22 +10191,22 @@
         <v>2018</v>
       </c>
       <c r="D97" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="E97" t="s">
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="G97" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="H97" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="I97" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="J97" t="s">
         <v>76</v>
@@ -10245,31 +10215,31 @@
         <v>108</v>
       </c>
       <c r="N97" t="s">
+        <v>732</v>
+      </c>
+      <c r="O97" t="s">
+        <v>733</v>
+      </c>
+      <c r="P97" t="s">
+        <v>734</v>
+      </c>
+      <c r="R97" t="s">
+        <v>735</v>
+      </c>
+      <c r="S97" t="s">
+        <v>736</v>
+      </c>
+      <c r="T97" t="s">
         <v>737</v>
       </c>
-      <c r="O97" t="s">
-        <v>738</v>
-      </c>
-      <c r="P97" t="s">
-        <v>739</v>
-      </c>
-      <c r="R97" t="s">
-        <v>740</v>
-      </c>
-      <c r="S97" t="s">
-        <v>741</v>
-      </c>
-      <c r="T97" t="s">
-        <v>742</v>
-      </c>
       <c r="U97" s="1" t="s">
-        <v>1380</v>
+        <v>1370</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1810</v>
       </c>
@@ -10280,19 +10250,19 @@
         <v>2018</v>
       </c>
       <c r="D98" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="E98" t="s">
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="G98" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="H98" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="I98" t="s">
         <v>42</v>
@@ -10301,16 +10271,16 @@
         <v>76</v>
       </c>
       <c r="K98" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="S98" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="T98" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="99" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" ht="58.1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1810</v>
       </c>
@@ -10321,55 +10291,55 @@
         <v>2018</v>
       </c>
       <c r="D99" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="E99" t="s">
         <v>1</v>
       </c>
       <c r="F99" t="s">
+        <v>746</v>
+      </c>
+      <c r="G99" t="s">
+        <v>746</v>
+      </c>
+      <c r="H99" t="s">
+        <v>747</v>
+      </c>
+      <c r="I99" t="s">
+        <v>748</v>
+      </c>
+      <c r="J99" t="s">
+        <v>749</v>
+      </c>
+      <c r="K99" t="s">
+        <v>750</v>
+      </c>
+      <c r="N99" t="s">
         <v>751</v>
-      </c>
-      <c r="G99" t="s">
-        <v>751</v>
-      </c>
-      <c r="H99" t="s">
-        <v>752</v>
-      </c>
-      <c r="I99" t="s">
-        <v>753</v>
-      </c>
-      <c r="J99" t="s">
-        <v>754</v>
-      </c>
-      <c r="K99" t="s">
-        <v>755</v>
-      </c>
-      <c r="N99" t="s">
-        <v>756</v>
       </c>
       <c r="O99" t="s">
         <v>27</v>
       </c>
       <c r="P99" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="R99" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="S99" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="T99" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="U99" s="1" t="s">
-        <v>1382</v>
+        <v>1372</v>
       </c>
       <c r="V99" s="1" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="100" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1807</v>
       </c>
@@ -10380,46 +10350,46 @@
         <v>2018</v>
       </c>
       <c r="D100" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="E100" t="s">
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G100" t="s">
         <v>40</v>
       </c>
       <c r="H100" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="I100" t="s">
         <v>42</v>
       </c>
       <c r="J100" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="K100" t="s">
         <v>24</v>
       </c>
       <c r="N100" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="P100" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="T100" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="U100" s="1" t="s">
-        <v>1384</v>
+        <v>1374</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="101" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1705</v>
       </c>
@@ -10427,49 +10397,49 @@
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D101" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="E101" t="s">
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G101" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="H101" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="J101" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="K101" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="N101" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="O101" t="s">
         <v>140</v>
       </c>
       <c r="P101" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="T101" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>1386</v>
+        <v>1376</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="102" spans="1:22" ht="165" x14ac:dyDescent="0.25">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" ht="159.75" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1706</v>
       </c>
@@ -10480,49 +10450,49 @@
         <v>2017</v>
       </c>
       <c r="D102" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="E102" t="s">
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="H102" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="J102" t="s">
         <v>76</v>
       </c>
       <c r="K102" t="s">
+        <v>772</v>
+      </c>
+      <c r="L102" t="s">
+        <v>773</v>
+      </c>
+      <c r="N102" t="s">
+        <v>774</v>
+      </c>
+      <c r="O102" t="s">
+        <v>775</v>
+      </c>
+      <c r="P102" t="s">
+        <v>776</v>
+      </c>
+      <c r="R102" t="s">
         <v>777</v>
       </c>
-      <c r="L102" t="s">
+      <c r="T102" t="s">
         <v>778</v>
       </c>
-      <c r="N102" t="s">
-        <v>779</v>
-      </c>
-      <c r="O102" t="s">
-        <v>780</v>
-      </c>
-      <c r="P102" t="s">
-        <v>781</v>
-      </c>
-      <c r="R102" t="s">
-        <v>782</v>
-      </c>
-      <c r="T102" t="s">
-        <v>783</v>
-      </c>
       <c r="U102" s="1" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="V102" s="1" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="103" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1709</v>
       </c>
@@ -10533,19 +10503,19 @@
         <v>2017</v>
       </c>
       <c r="D103" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="E103" t="s">
         <v>237</v>
       </c>
       <c r="F103" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="G103" t="s">
         <v>12</v>
       </c>
       <c r="H103" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="I103" t="s">
         <v>237</v>
@@ -10554,34 +10524,34 @@
         <v>14</v>
       </c>
       <c r="K103" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="N103" t="s">
+        <v>609</v>
+      </c>
+      <c r="O103" t="s">
+        <v>610</v>
+      </c>
+      <c r="P103" t="s">
+        <v>783</v>
+      </c>
+      <c r="R103" t="s">
         <v>612</v>
       </c>
-      <c r="O103" t="s">
+      <c r="S103" t="s">
         <v>613</v>
       </c>
-      <c r="P103" t="s">
-        <v>788</v>
-      </c>
-      <c r="R103" t="s">
-        <v>615</v>
-      </c>
-      <c r="S103" t="s">
-        <v>616</v>
-      </c>
       <c r="T103" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="U103" s="1" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
       <c r="V103" s="1" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="104" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1702</v>
       </c>
@@ -10592,52 +10562,52 @@
         <v>2017</v>
       </c>
       <c r="D104" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="E104" t="s">
         <v>237</v>
       </c>
       <c r="F104" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="H104" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="I104" t="s">
         <v>237</v>
       </c>
       <c r="J104" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="K104" t="s">
         <v>69</v>
       </c>
       <c r="N104" t="s">
+        <v>789</v>
+      </c>
+      <c r="O104" t="s">
+        <v>790</v>
+      </c>
+      <c r="P104" t="s">
+        <v>791</v>
+      </c>
+      <c r="R104" t="s">
+        <v>792</v>
+      </c>
+      <c r="S104" t="s">
+        <v>793</v>
+      </c>
+      <c r="T104" t="s">
         <v>794</v>
       </c>
-      <c r="O104" t="s">
-        <v>795</v>
-      </c>
-      <c r="P104" t="s">
-        <v>796</v>
-      </c>
-      <c r="R104" t="s">
-        <v>797</v>
-      </c>
-      <c r="S104" t="s">
-        <v>798</v>
-      </c>
-      <c r="T104" t="s">
-        <v>799</v>
-      </c>
       <c r="U104" s="1" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
       <c r="V104" s="1" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="105" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1706</v>
       </c>
@@ -10648,52 +10618,52 @@
         <v>2017</v>
       </c>
       <c r="D105" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="E105" t="s">
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="G105" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="H105" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="I105" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="J105" t="s">
         <v>127</v>
       </c>
       <c r="K105" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="O105" t="s">
         <v>27</v>
       </c>
       <c r="P105" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="R105" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="T105" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="U105" s="1" t="s">
-        <v>1394</v>
+        <v>1384</v>
       </c>
       <c r="V105" s="1" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1703</v>
       </c>
@@ -10704,52 +10674,52 @@
         <v>2017</v>
       </c>
       <c r="D106" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="E106" t="s">
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="G106" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="H106" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="I106" t="s">
         <v>42</v>
       </c>
       <c r="J106" t="s">
+        <v>807</v>
+      </c>
+      <c r="K106" t="s">
+        <v>808</v>
+      </c>
+      <c r="N106" t="s">
+        <v>809</v>
+      </c>
+      <c r="O106" t="s">
+        <v>810</v>
+      </c>
+      <c r="P106" t="s">
+        <v>811</v>
+      </c>
+      <c r="S106" t="s">
         <v>812</v>
       </c>
-      <c r="K106" t="s">
+      <c r="T106" t="s">
         <v>813</v>
       </c>
-      <c r="N106" t="s">
+      <c r="U106" t="s">
         <v>814</v>
       </c>
-      <c r="O106" t="s">
+      <c r="V106" t="s">
         <v>815</v>
       </c>
-      <c r="P106" t="s">
-        <v>816</v>
-      </c>
-      <c r="S106" t="s">
-        <v>817</v>
-      </c>
-      <c r="T106" t="s">
-        <v>818</v>
-      </c>
-      <c r="U106" t="s">
-        <v>819</v>
-      </c>
-      <c r="V106" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="107" spans="1:22" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:22" ht="101.65" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1706</v>
       </c>
@@ -10760,19 +10730,19 @@
         <v>2017</v>
       </c>
       <c r="D107" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="E107" t="s">
         <v>237</v>
       </c>
       <c r="F107" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="G107" t="s">
         <v>12</v>
       </c>
       <c r="H107" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="I107" t="s">
         <v>237</v>
@@ -10781,34 +10751,34 @@
         <v>14</v>
       </c>
       <c r="K107" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="N107" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="O107" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="P107" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="R107" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="S107" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="T107" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="U107" s="1" t="s">
-        <v>1396</v>
+        <v>1386</v>
       </c>
       <c r="V107" s="1" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="108" spans="1:22" ht="105" x14ac:dyDescent="0.25">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" ht="87.15" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1706</v>
       </c>
@@ -10819,55 +10789,55 @@
         <v>2017</v>
       </c>
       <c r="D108" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="E108" t="s">
         <v>1</v>
       </c>
       <c r="G108" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="H108" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="I108" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="J108" t="s">
         <v>43</v>
       </c>
       <c r="K108" t="s">
+        <v>772</v>
+      </c>
+      <c r="L108" t="s">
+        <v>773</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="O108" t="s">
+        <v>775</v>
+      </c>
+      <c r="P108" t="s">
+        <v>829</v>
+      </c>
+      <c r="R108" t="s">
         <v>777</v>
       </c>
-      <c r="L108" t="s">
-        <v>778</v>
-      </c>
-      <c r="N108" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="O108" t="s">
-        <v>780</v>
-      </c>
-      <c r="P108" t="s">
-        <v>834</v>
-      </c>
-      <c r="R108" t="s">
-        <v>782</v>
-      </c>
       <c r="S108" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="T108" s="1" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="U108" s="1" t="s">
-        <v>1398</v>
+        <v>1388</v>
       </c>
       <c r="V108" s="1" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="109" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1707</v>
       </c>
@@ -10878,19 +10848,19 @@
         <v>2017</v>
       </c>
       <c r="D109" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="E109" t="s">
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="H109" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="I109" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="J109" t="s">
         <v>43</v>
@@ -10899,28 +10869,28 @@
         <v>69</v>
       </c>
       <c r="N109" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="P109" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="R109" t="s">
         <v>258</v>
       </c>
       <c r="S109" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="T109" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="U109" s="1" t="s">
-        <v>1400</v>
+        <v>1390</v>
       </c>
       <c r="V109" s="1" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="110" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1705</v>
       </c>
@@ -10931,7 +10901,7 @@
         <v>2017</v>
       </c>
       <c r="D110" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="E110" t="s">
         <v>1</v>
@@ -10940,43 +10910,43 @@
         <v>49</v>
       </c>
       <c r="H110" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="I110" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="J110" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="K110" t="s">
         <v>69</v>
       </c>
       <c r="N110" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="O110" t="s">
         <v>27</v>
       </c>
       <c r="P110" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="R110" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="S110" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="T110" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="U110" s="1" t="s">
-        <v>1402</v>
+        <v>1392</v>
       </c>
       <c r="V110" s="1" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="111" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1601</v>
       </c>
@@ -10987,19 +10957,19 @@
         <v>2016</v>
       </c>
       <c r="D111" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="E111" t="s">
         <v>237</v>
       </c>
       <c r="F111" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="G111" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="H111" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="I111" t="s">
         <v>237</v>
@@ -11008,39 +10978,39 @@
         <v>14</v>
       </c>
       <c r="K111" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O111" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="P111" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="R111" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="S111" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="T111" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="U111" s="1" t="s">
-        <v>1404</v>
+        <v>1394</v>
       </c>
       <c r="V111" s="1" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="112" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" ht="58.1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C112">
         <v>2016</v>
       </c>
       <c r="D112" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="E112" t="s">
         <v>1</v>
@@ -11049,7 +11019,7 @@
         <v>125</v>
       </c>
       <c r="H112" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="J112" t="s">
         <v>76</v>
@@ -11058,28 +11028,28 @@
         <v>69</v>
       </c>
       <c r="O112" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="P112" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="R112" t="s">
         <v>142</v>
       </c>
       <c r="S112" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="T112" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="U112" s="1" t="s">
-        <v>1406</v>
+        <v>1396</v>
       </c>
       <c r="V112" s="1" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="113" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1604</v>
       </c>
@@ -11090,19 +11060,19 @@
         <v>2016</v>
       </c>
       <c r="D113" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="E113" t="s">
         <v>237</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="G113" t="s">
         <v>125</v>
       </c>
       <c r="H113" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="I113" t="s">
         <v>237</v>
@@ -11111,31 +11081,31 @@
         <v>14</v>
       </c>
       <c r="K113" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="N113" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="O113" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="P113" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="R113" t="s">
         <v>142</v>
       </c>
       <c r="T113" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="U113" s="1" t="s">
-        <v>1408</v>
+        <v>1398</v>
       </c>
       <c r="V113" s="1" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="114" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1609</v>
       </c>
@@ -11146,19 +11116,19 @@
         <v>2016</v>
       </c>
       <c r="D114" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E114" t="s">
         <v>237</v>
       </c>
       <c r="F114" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="G114" t="s">
         <v>12</v>
       </c>
       <c r="H114" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="I114" t="s">
         <v>237</v>
@@ -11167,39 +11137,39 @@
         <v>14</v>
       </c>
       <c r="K114" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="N114" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="O114" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="R114" t="s">
         <v>12</v>
       </c>
       <c r="T114" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="U114" s="1" t="s">
-        <v>1410</v>
+        <v>1400</v>
       </c>
       <c r="V114" s="1" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="C115">
         <v>2016</v>
       </c>
       <c r="D115" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="E115" t="s">
         <v>1</v>
@@ -11208,7 +11178,7 @@
         <v>40</v>
       </c>
       <c r="H115" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="I115" t="s">
         <v>42</v>
@@ -11217,25 +11187,25 @@
         <v>76</v>
       </c>
       <c r="K115" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="P115" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="R115" t="s">
         <v>12</v>
       </c>
       <c r="T115" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="U115" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="V115" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="116" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1608</v>
       </c>
@@ -11246,49 +11216,49 @@
         <v>2016</v>
       </c>
       <c r="D116" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="E116" t="s">
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="H116" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="I116" t="s">
         <v>42</v>
       </c>
       <c r="J116" t="s">
+        <v>889</v>
+      </c>
+      <c r="K116" t="s">
+        <v>890</v>
+      </c>
+      <c r="N116" t="s">
+        <v>891</v>
+      </c>
+      <c r="O116" t="s">
+        <v>892</v>
+      </c>
+      <c r="P116" t="s">
+        <v>893</v>
+      </c>
+      <c r="S116" t="s">
         <v>894</v>
       </c>
-      <c r="K116" t="s">
+      <c r="T116" t="s">
         <v>895</v>
       </c>
-      <c r="N116" t="s">
-        <v>896</v>
-      </c>
-      <c r="O116" t="s">
-        <v>897</v>
-      </c>
-      <c r="P116" t="s">
-        <v>898</v>
-      </c>
-      <c r="S116" t="s">
-        <v>899</v>
-      </c>
-      <c r="T116" t="s">
-        <v>900</v>
-      </c>
       <c r="U116" s="1" t="s">
-        <v>1412</v>
+        <v>1402</v>
       </c>
       <c r="V116" s="1" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="117" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1609</v>
       </c>
@@ -11299,43 +11269,43 @@
         <v>2016</v>
       </c>
       <c r="D117" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="E117" t="s">
         <v>237</v>
       </c>
       <c r="F117" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="H117" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="J117" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="K117" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="N117" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="O117" t="s">
         <v>27</v>
       </c>
       <c r="P117" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="T117" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="U117" s="1" t="s">
-        <v>1414</v>
+        <v>1404</v>
       </c>
       <c r="V117" s="1" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="118" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" ht="58.1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1610</v>
       </c>
@@ -11346,7 +11316,7 @@
         <v>2016</v>
       </c>
       <c r="D118" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="E118" t="s">
         <v>1</v>
@@ -11355,45 +11325,45 @@
         <v>40</v>
       </c>
       <c r="H118" t="s">
+        <v>905</v>
+      </c>
+      <c r="N118" t="s">
+        <v>906</v>
+      </c>
+      <c r="P118" t="s">
+        <v>907</v>
+      </c>
+      <c r="S118" t="s">
+        <v>908</v>
+      </c>
+      <c r="T118" t="s">
+        <v>909</v>
+      </c>
+      <c r="U118" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="V118" s="1" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" ht="58.1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>910</v>
       </c>
-      <c r="N118" t="s">
+      <c r="C119">
+        <v>2015</v>
+      </c>
+      <c r="D119" t="s">
         <v>911</v>
-      </c>
-      <c r="P118" t="s">
-        <v>912</v>
-      </c>
-      <c r="S118" t="s">
-        <v>913</v>
-      </c>
-      <c r="T118" t="s">
-        <v>914</v>
-      </c>
-      <c r="U118" s="1" t="s">
-        <v>1416</v>
-      </c>
-      <c r="V118" s="1" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="119" spans="1:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>915</v>
-      </c>
-      <c r="C119" t="s">
-        <v>916</v>
-      </c>
-      <c r="D119" t="s">
-        <v>917</v>
       </c>
       <c r="E119" t="s">
         <v>237</v>
       </c>
       <c r="F119" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="H119" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="J119" t="s">
         <v>14</v>
@@ -11402,36 +11372,36 @@
         <v>15</v>
       </c>
       <c r="N119" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="O119" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="P119" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="R119" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="T119" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="U119" s="1" t="s">
-        <v>1418</v>
+        <v>1408</v>
       </c>
       <c r="V119" s="1" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="120" spans="1:22" ht="90" x14ac:dyDescent="0.25">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" ht="87.15" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="C120">
         <v>2011</v>
       </c>
       <c r="D120" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="E120" t="s">
         <v>237</v>
@@ -11440,7 +11410,7 @@
         <v>66</v>
       </c>
       <c r="H120" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="J120" t="s">
         <v>76</v>
@@ -11449,28 +11419,28 @@
         <v>69</v>
       </c>
       <c r="O120" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="P120" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="R120" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="S120" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="T120" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="U120" s="1" t="s">
-        <v>1420</v>
+        <v>1410</v>
       </c>
       <c r="V120" s="1" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="121" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1606</v>
       </c>
@@ -11481,16 +11451,16 @@
         <v>2016</v>
       </c>
       <c r="D121" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="E121" t="s">
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="H121" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="J121" t="s">
         <v>76</v>
@@ -11499,92 +11469,92 @@
         <v>108</v>
       </c>
       <c r="N121" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="P121" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="R121" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="T121" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="U121" s="1" t="s">
-        <v>1422</v>
+        <v>1412</v>
       </c>
       <c r="V121" s="1" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="122" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="C122">
         <v>2016</v>
       </c>
       <c r="D122" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="E122" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="H122" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="J122" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="K122" t="s">
         <v>69</v>
       </c>
       <c r="N122" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="O122" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="P122" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="R122" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="S122" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="T122" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="U122" s="1" t="s">
-        <v>1424</v>
+        <v>1414</v>
       </c>
       <c r="V122" s="1" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="123" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1506</v>
       </c>
       <c r="B123">
         <v>6</v>
       </c>
-      <c r="C123" t="s">
-        <v>950</v>
+      <c r="C123">
+        <v>2014</v>
       </c>
       <c r="D123" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="E123" t="s">
         <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="H123" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="J123" t="s">
         <v>14</v>
@@ -11593,31 +11563,31 @@
         <v>15</v>
       </c>
       <c r="N123" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="O123" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="P123" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="R123" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="S123" s="1" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="T123" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="U123" s="1" t="s">
-        <v>1426</v>
+        <v>1416</v>
       </c>
       <c r="V123" s="1" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="124" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1510</v>
       </c>
@@ -11628,13 +11598,13 @@
         <v>2015</v>
       </c>
       <c r="D124" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="E124" t="s">
         <v>145</v>
       </c>
       <c r="F124" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="H124" t="s">
         <v>328</v>
@@ -11643,28 +11613,28 @@
         <v>127</v>
       </c>
       <c r="K124" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="N124" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="O124" t="s">
         <v>27</v>
       </c>
       <c r="P124" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="T124" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="U124" s="1" t="s">
-        <v>1428</v>
+        <v>1418</v>
       </c>
       <c r="V124" s="1" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="125" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1507</v>
       </c>
@@ -11675,49 +11645,49 @@
         <v>2015</v>
       </c>
       <c r="D125" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="E125" t="s">
         <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="H125" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="J125" t="s">
         <v>127</v>
       </c>
       <c r="K125" t="s">
+        <v>953</v>
+      </c>
+      <c r="N125" t="s">
         <v>960</v>
-      </c>
-      <c r="N125" t="s">
-        <v>967</v>
       </c>
       <c r="O125" t="s">
         <v>27</v>
       </c>
       <c r="P125" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="R125" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="S125" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="T125" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="U125" s="1" t="s">
-        <v>1430</v>
+        <v>1420</v>
       </c>
       <c r="V125" s="1" t="s">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="126" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1511</v>
       </c>
@@ -11728,7 +11698,7 @@
         <v>2015</v>
       </c>
       <c r="D126" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="E126" t="s">
         <v>1</v>
@@ -11737,7 +11707,7 @@
         <v>3</v>
       </c>
       <c r="H126" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="J126" t="s">
         <v>76</v>
@@ -11746,28 +11716,28 @@
         <v>69</v>
       </c>
       <c r="N126" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="O126" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="P126" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="R126" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="T126" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="U126" s="1" t="s">
-        <v>1432</v>
+        <v>1422</v>
       </c>
       <c r="V126" s="1" t="s">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="127" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1403</v>
       </c>
@@ -11778,46 +11748,46 @@
         <v>2014</v>
       </c>
       <c r="D127" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="E127" t="s">
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="H127" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="J127" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="K127" t="s">
         <v>69</v>
       </c>
       <c r="O127" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="P127" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="R127" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="S127" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="T127" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="U127" s="1" t="s">
-        <v>1434</v>
+        <v>1424</v>
       </c>
       <c r="V127" s="1" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="128" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1401</v>
       </c>
@@ -11828,49 +11798,49 @@
         <v>2014</v>
       </c>
       <c r="D128" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="E128" t="s">
         <v>237</v>
       </c>
       <c r="F128" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="H128" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="J128" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="K128" t="s">
         <v>15</v>
       </c>
       <c r="N128" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="O128" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="P128" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="R128" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="S128" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="T128" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="U128" s="1" t="s">
-        <v>1436</v>
+        <v>1426</v>
       </c>
       <c r="V128" s="1" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="129" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1412</v>
       </c>
@@ -11881,16 +11851,16 @@
         <v>2014</v>
       </c>
       <c r="D129" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="E129" t="s">
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="H129" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="J129" t="s">
         <v>76</v>
@@ -11899,31 +11869,31 @@
         <v>69</v>
       </c>
       <c r="N129" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="O129" t="s">
         <v>27</v>
       </c>
       <c r="P129" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="R129" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="S129" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="T129" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="U129" s="1" t="s">
-        <v>1438</v>
+        <v>1428</v>
       </c>
       <c r="V129" s="1" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="130" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1206</v>
       </c>
@@ -11934,7 +11904,7 @@
         <v>2012</v>
       </c>
       <c r="D130" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="E130" t="s">
         <v>1</v>
@@ -11943,37 +11913,37 @@
         <v>40</v>
       </c>
       <c r="H130" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="J130" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="K130" t="s">
         <v>69</v>
       </c>
       <c r="N130" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="O130" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="P130" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="R130" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="T130" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="U130" s="1" t="s">
-        <v>1440</v>
+        <v>1430</v>
       </c>
       <c r="V130" s="1" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="131" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1206</v>
       </c>
@@ -11984,7 +11954,7 @@
         <v>2012</v>
       </c>
       <c r="D131" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="E131" t="s">
         <v>1</v>
@@ -11993,40 +11963,40 @@
         <v>40</v>
       </c>
       <c r="H131" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="J131" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="K131" t="s">
         <v>69</v>
       </c>
       <c r="N131" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="O131" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="P131" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="R131" t="s">
+        <v>1005</v>
+      </c>
+      <c r="S131" t="s">
         <v>1012</v>
       </c>
-      <c r="S131" t="s">
-        <v>1019</v>
-      </c>
       <c r="T131" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="U131" s="1" t="s">
-        <v>1442</v>
+        <v>1432</v>
       </c>
       <c r="V131" s="1" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="132" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1305</v>
       </c>
@@ -12037,43 +12007,43 @@
         <v>2013</v>
       </c>
       <c r="D132" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="E132" t="s">
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="J132" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="K132" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="N132" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="O132" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="P132" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="R132" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="T132" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="U132" s="1" t="s">
-        <v>1444</v>
+        <v>1434</v>
       </c>
       <c r="V132" s="1" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="133" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1306</v>
       </c>
@@ -12084,101 +12054,101 @@
         <v>2013</v>
       </c>
       <c r="D133" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="E133" t="s">
         <v>237</v>
       </c>
       <c r="F133" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="H133" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="J133" t="s">
         <v>14</v>
       </c>
       <c r="K133" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="N133" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="O133" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="P133" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="R133" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="T133" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="U133" s="1" t="s">
-        <v>1446</v>
+        <v>1436</v>
       </c>
       <c r="V133" s="1" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="C134">
         <v>2013</v>
       </c>
       <c r="D134" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="E134" t="s">
         <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="H134" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="J134" t="s">
         <v>76</v>
       </c>
       <c r="K134" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="S134" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="T134" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="U134" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="V134" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="135" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="C135">
         <v>2013</v>
       </c>
       <c r="D135" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="E135" t="s">
         <v>145</v>
       </c>
       <c r="F135" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="H135" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="J135" t="s">
         <v>76</v>
@@ -12187,25 +12157,25 @@
         <v>108</v>
       </c>
       <c r="N135" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="P135" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="S135" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="T135" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="U135" s="1" t="s">
-        <v>1448</v>
+        <v>1438</v>
       </c>
       <c r="V135" s="1" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="136" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1204</v>
       </c>
@@ -12216,7 +12186,7 @@
         <v>2012</v>
       </c>
       <c r="D136" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="E136" t="s">
         <v>1</v>
@@ -12225,87 +12195,87 @@
         <v>279</v>
       </c>
       <c r="H136" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="J136" t="s">
         <v>76</v>
       </c>
       <c r="K136" t="s">
+        <v>1048</v>
+      </c>
+      <c r="N136" t="s">
+        <v>1049</v>
+      </c>
+      <c r="O136" t="s">
+        <v>1050</v>
+      </c>
+      <c r="P136" t="s">
+        <v>1051</v>
+      </c>
+      <c r="R136" t="s">
+        <v>1052</v>
+      </c>
+      <c r="S136" t="s">
+        <v>1053</v>
+      </c>
+      <c r="T136" t="s">
+        <v>1054</v>
+      </c>
+      <c r="U136" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="V136" s="1" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" ht="72.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>1055</v>
-      </c>
-      <c r="N136" t="s">
-        <v>1056</v>
-      </c>
-      <c r="O136" t="s">
-        <v>1057</v>
-      </c>
-      <c r="P136" t="s">
-        <v>1058</v>
-      </c>
-      <c r="R136" t="s">
-        <v>1059</v>
-      </c>
-      <c r="S136" t="s">
-        <v>1060</v>
-      </c>
-      <c r="T136" t="s">
-        <v>1061</v>
-      </c>
-      <c r="U136" s="1" t="s">
-        <v>1450</v>
-      </c>
-      <c r="V136" s="1" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="137" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>1062</v>
       </c>
       <c r="C137">
         <v>2012</v>
       </c>
       <c r="D137" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="E137" t="s">
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="H137" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="J137" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="K137" t="s">
         <v>69</v>
       </c>
       <c r="N137" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="O137" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="P137" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="R137" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="T137" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="U137" s="1" t="s">
-        <v>1452</v>
+        <v>1442</v>
       </c>
       <c r="V137" s="1" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="138" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1204</v>
       </c>
@@ -12316,46 +12286,46 @@
         <v>2012</v>
       </c>
       <c r="D138" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="E138" t="s">
         <v>327</v>
       </c>
       <c r="F138" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="H138" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="J138" t="s">
         <v>14</v>
       </c>
       <c r="K138" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="N138" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="O138" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="P138" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="R138" t="s">
         <v>142</v>
       </c>
       <c r="T138" s="1" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="U138" s="1" t="s">
-        <v>1454</v>
+        <v>1444</v>
       </c>
       <c r="V138" s="1" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="139" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" ht="58.1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1204</v>
       </c>
@@ -12366,49 +12336,49 @@
         <v>2012</v>
       </c>
       <c r="D139" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="E139" t="s">
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="H139" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="J139" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="K139" t="s">
         <v>108</v>
       </c>
       <c r="N139" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="O139" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="P139" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="R139" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="S139" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="T139" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="U139" s="1" t="s">
-        <v>1456</v>
+        <v>1446</v>
       </c>
       <c r="V139" s="1" t="s">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="140" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1210</v>
       </c>
@@ -12419,102 +12389,102 @@
         <v>2012</v>
       </c>
       <c r="D140" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="E140" t="s">
         <v>145</v>
       </c>
       <c r="F140" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="H140" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="J140" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="K140" t="s">
         <v>207</v>
       </c>
       <c r="N140" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="O140" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="P140" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="R140" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="S140" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="T140" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="U140" s="1" t="s">
-        <v>1458</v>
+        <v>1448</v>
       </c>
       <c r="V140" s="1" t="s">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="141" spans="1:22" ht="150" x14ac:dyDescent="0.25">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" ht="145.25" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1106</v>
       </c>
       <c r="B141">
         <v>6</v>
       </c>
-      <c r="C141" t="s">
-        <v>1097</v>
+      <c r="C141">
+        <v>2011</v>
       </c>
       <c r="D141" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="E141" t="s">
         <v>1</v>
       </c>
       <c r="F141" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H141" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J141" t="s">
+        <v>1093</v>
+      </c>
+      <c r="K141" t="s">
+        <v>1094</v>
+      </c>
+      <c r="N141" t="s">
+        <v>1095</v>
+      </c>
+      <c r="O141" t="s">
+        <v>1096</v>
+      </c>
+      <c r="P141" t="s">
+        <v>1097</v>
+      </c>
+      <c r="R141" t="s">
+        <v>1098</v>
+      </c>
+      <c r="S141" t="s">
         <v>1099</v>
       </c>
-      <c r="H141" t="s">
+      <c r="T141" t="s">
         <v>1100</v>
       </c>
-      <c r="J141" t="s">
-        <v>1101</v>
-      </c>
-      <c r="K141" t="s">
-        <v>1102</v>
-      </c>
-      <c r="N141" t="s">
-        <v>1103</v>
-      </c>
-      <c r="O141" t="s">
-        <v>1104</v>
-      </c>
-      <c r="P141" t="s">
-        <v>1105</v>
-      </c>
-      <c r="R141" t="s">
-        <v>1106</v>
-      </c>
-      <c r="S141" t="s">
-        <v>1107</v>
-      </c>
-      <c r="T141" t="s">
-        <v>1108</v>
-      </c>
       <c r="U141" s="1" t="s">
-        <v>1460</v>
+        <v>1450</v>
       </c>
       <c r="V141" s="1" t="s">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="142" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1103</v>
       </c>
@@ -12525,49 +12495,49 @@
         <v>2011</v>
       </c>
       <c r="D142" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="E142" t="s">
         <v>327</v>
       </c>
       <c r="F142" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
       <c r="H142" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="J142" t="s">
         <v>14</v>
       </c>
       <c r="K142" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="N142" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="O142" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="P142" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="R142" t="s">
         <v>142</v>
       </c>
       <c r="S142" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="T142" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="U142" s="1" t="s">
-        <v>1454</v>
+        <v>1444</v>
       </c>
       <c r="V142" s="1" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="143" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1108</v>
       </c>
@@ -12578,146 +12548,146 @@
         <v>2011</v>
       </c>
       <c r="D143" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="E143" t="s">
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="H143" t="s">
-        <v>1117</v>
+        <v>1109</v>
       </c>
       <c r="J143" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
       <c r="K143" t="s">
         <v>69</v>
       </c>
       <c r="N143" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
       <c r="P143" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
       <c r="R143" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
       <c r="S143" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="T143" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="U143" s="1" t="s">
-        <v>1462</v>
+        <v>1452</v>
       </c>
       <c r="V143" s="1" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C144" t="s">
-        <v>1125</v>
+        <v>1116</v>
+      </c>
+      <c r="C144">
+        <v>2010</v>
       </c>
       <c r="D144" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
       <c r="E144" t="s">
         <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
       <c r="H144" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
       <c r="J144" t="s">
         <v>23</v>
       </c>
       <c r="K144" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="N144" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
       <c r="O144" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="P144" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="R144" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
       <c r="T144" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="U144" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="V144" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="145" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" ht="43.6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1004</v>
       </c>
       <c r="B145">
         <v>4</v>
       </c>
-      <c r="C145" t="s">
-        <v>1134</v>
+      <c r="C145">
+        <v>2010</v>
       </c>
       <c r="D145" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="E145" t="s">
         <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>1136</v>
+        <v>1126</v>
       </c>
       <c r="H145" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
       <c r="J145" t="s">
         <v>76</v>
       </c>
       <c r="K145" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="N145" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
       <c r="O145" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="P145" t="s">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="R145" t="s">
         <v>142</v>
       </c>
       <c r="S145" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="T145" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
       <c r="U145" s="1" t="s">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="V145" s="1" t="s">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="146" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1603</v>
       </c>
@@ -12725,7 +12695,7 @@
         <v>2016</v>
       </c>
       <c r="D146" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="E146" t="s">
         <v>237</v>
@@ -12734,40 +12704,40 @@
         <v>125</v>
       </c>
       <c r="H146" t="s">
-        <v>1144</v>
+        <v>1134</v>
       </c>
       <c r="J146" t="s">
         <v>14</v>
       </c>
       <c r="K146" t="s">
-        <v>1145</v>
+        <v>1135</v>
       </c>
       <c r="N146" t="s">
-        <v>1146</v>
+        <v>1136</v>
       </c>
       <c r="O146" t="s">
-        <v>1147</v>
+        <v>1137</v>
       </c>
       <c r="P146" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
       <c r="R146" t="s">
-        <v>1149</v>
+        <v>1139</v>
       </c>
       <c r="S146" t="s">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="T146" t="s">
-        <v>1151</v>
+        <v>1141</v>
       </c>
       <c r="U146" s="1" t="s">
-        <v>1466</v>
+        <v>1456</v>
       </c>
       <c r="V146" s="1" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1008</v>
       </c>
@@ -12778,93 +12748,93 @@
         <v>2010</v>
       </c>
       <c r="D147" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="E147" t="s">
         <v>327</v>
       </c>
       <c r="F147" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="H147" t="s">
-        <v>1152</v>
+        <v>1142</v>
       </c>
       <c r="J147" t="s">
         <v>14</v>
       </c>
       <c r="K147" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="N147" t="s">
-        <v>1153</v>
+        <v>1143</v>
       </c>
       <c r="O147" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="P147" t="s">
-        <v>1154</v>
+        <v>1144</v>
       </c>
       <c r="R147" t="s">
         <v>142</v>
       </c>
       <c r="S147" t="s">
-        <v>1155</v>
+        <v>1145</v>
       </c>
       <c r="T147" t="s">
-        <v>1156</v>
+        <v>1146</v>
       </c>
       <c r="U147" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="V147" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="148" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="D148" t="s">
-        <v>1157</v>
+        <v>1147</v>
       </c>
       <c r="E148" t="s">
         <v>145</v>
       </c>
       <c r="F148" t="s">
-        <v>1158</v>
+        <v>1148</v>
       </c>
       <c r="H148" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="J148" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="K148" t="s">
         <v>108</v>
       </c>
       <c r="N148" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
       <c r="O148" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="P148" t="s">
-        <v>1162</v>
+        <v>1152</v>
       </c>
       <c r="R148" t="s">
-        <v>1163</v>
+        <v>1153</v>
       </c>
       <c r="S148" t="s">
-        <v>1164</v>
+        <v>1154</v>
       </c>
       <c r="T148" t="s">
-        <v>1165</v>
+        <v>1155</v>
       </c>
       <c r="U148" s="1" t="s">
-        <v>1468</v>
+        <v>1458</v>
       </c>
       <c r="V148" s="1" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="149" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>805</v>
       </c>
@@ -12875,49 +12845,49 @@
         <v>2008</v>
       </c>
       <c r="D149" t="s">
-        <v>1166</v>
+        <v>1156</v>
       </c>
       <c r="E149" t="s">
         <v>145</v>
       </c>
       <c r="F149" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="H149" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="J149" t="s">
         <v>157</v>
       </c>
       <c r="K149" t="s">
-        <v>1169</v>
+        <v>1159</v>
       </c>
       <c r="N149" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="O149" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
       <c r="P149" t="s">
-        <v>1172</v>
+        <v>1162</v>
       </c>
       <c r="R149" t="s">
-        <v>1173</v>
+        <v>1163</v>
       </c>
       <c r="S149" t="s">
-        <v>1174</v>
+        <v>1164</v>
       </c>
       <c r="T149" t="s">
-        <v>1175</v>
+        <v>1165</v>
       </c>
       <c r="U149" s="1" t="s">
-        <v>1470</v>
+        <v>1460</v>
       </c>
       <c r="V149" s="1" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="150" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>405</v>
       </c>
@@ -12928,7 +12898,7 @@
         <v>2004</v>
       </c>
       <c r="D150" t="s">
-        <v>1176</v>
+        <v>1166</v>
       </c>
       <c r="E150" t="s">
         <v>1</v>
@@ -12937,7 +12907,7 @@
         <v>49</v>
       </c>
       <c r="H150" t="s">
-        <v>1177</v>
+        <v>1167</v>
       </c>
       <c r="J150" t="s">
         <v>157</v>
@@ -12946,25 +12916,25 @@
         <v>108</v>
       </c>
       <c r="N150" t="s">
-        <v>1178</v>
+        <v>1168</v>
       </c>
       <c r="P150" t="s">
-        <v>1179</v>
+        <v>1169</v>
       </c>
       <c r="R150" t="s">
-        <v>1180</v>
+        <v>1170</v>
       </c>
       <c r="T150" t="s">
-        <v>1181</v>
+        <v>1171</v>
       </c>
       <c r="U150" s="1" t="s">
-        <v>1472</v>
+        <v>1462</v>
       </c>
       <c r="V150" s="1" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="151" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>212</v>
       </c>
@@ -12975,49 +12945,49 @@
         <v>2002</v>
       </c>
       <c r="D151" t="s">
-        <v>1182</v>
+        <v>1172</v>
       </c>
       <c r="E151" t="s">
         <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>1183</v>
+        <v>1173</v>
       </c>
       <c r="H151" t="s">
-        <v>1184</v>
+        <v>1174</v>
       </c>
       <c r="J151" t="s">
-        <v>1185</v>
+        <v>1175</v>
       </c>
       <c r="K151" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="N151" t="s">
-        <v>1186</v>
+        <v>1176</v>
       </c>
       <c r="O151" t="s">
-        <v>1187</v>
+        <v>1177</v>
       </c>
       <c r="P151" t="s">
-        <v>1188</v>
+        <v>1178</v>
       </c>
       <c r="R151" t="s">
-        <v>1189</v>
+        <v>1179</v>
       </c>
       <c r="S151" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
       <c r="T151" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
       <c r="U151" s="1" t="s">
-        <v>1474</v>
+        <v>1464</v>
       </c>
       <c r="V151" s="1" t="s">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="152" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" ht="29.05" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>109</v>
       </c>
@@ -13028,43 +12998,43 @@
         <v>2001</v>
       </c>
       <c r="D152" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
       <c r="E152" t="s">
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>1193</v>
+        <v>1183</v>
       </c>
       <c r="H152" t="s">
         <v>174</v>
       </c>
       <c r="J152" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="K152" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="N152" t="s">
-        <v>1194</v>
+        <v>1184</v>
       </c>
       <c r="O152" t="s">
         <v>63</v>
       </c>
       <c r="P152" t="s">
-        <v>1195</v>
+        <v>1185</v>
       </c>
       <c r="S152" t="s">
-        <v>1196</v>
+        <v>1186</v>
       </c>
       <c r="T152" t="s">
-        <v>1197</v>
+        <v>1187</v>
       </c>
       <c r="U152" s="1" t="s">
-        <v>1476</v>
+        <v>1466</v>
       </c>
       <c r="V152" s="1" t="s">
-        <v>1477</v>
+        <v>1467</v>
       </c>
     </row>
   </sheetData>
